--- a/biology/Botanique/Mammillaria_theresae/Mammillaria_theresae.xlsx
+++ b/biology/Botanique/Mammillaria_theresae/Mammillaria_theresae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria theresae est une espèce de cactus (Cactaceae) du genre Mammillaria découverte au printemps 1966 dans la région de Durango au Mexique par Mme Theresa Bock à qui cette plante naine doit son nom.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en partant en vacances sur la route d'El Paso à Mexico que deux amateurs américains de cactus, John et Theresa Bock[1], découvrent des fleurs rouges sur le sol qui dissimulent un minuscule cactus qui a la particularité d'être enfoui sous le sol en période de repos et n'est visible qu'à la floraison[2]. Elle est peu ramifiée en forme de petite massue d'un maximum de 4 cm de hauteur et de 2 cm d'épaisseur. Ses aréoles portent entre 22 et 30 épines plumeuses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en partant en vacances sur la route d'El Paso à Mexico que deux amateurs américains de cactus, John et Theresa Bock, découvrent des fleurs rouges sur le sol qui dissimulent un minuscule cactus qui a la particularité d'être enfoui sous le sol en période de repos et n'est visible qu'à la floraison. Elle est peu ramifiée en forme de petite massue d'un maximum de 4 cm de hauteur et de 2 cm d'épaisseur. Ses aréoles portent entre 22 et 30 épines plumeuses.
 Ses fleurs au bout d'une tige vert-olive sont beaucoup plus grandes que le reste et mesurent 4,5 cm de longueur. Elles sont en forme d'entonnoir et de couleur rose carmin foncé.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria theresae croît dans les hauteurs du col de Coneto entre 2 100 et 2 400 mètres d'altitude.
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria theresae ne supporte aucune humidité et aucun hivernage au froid. Des cultivars existent avec d'autres couleurs de fleurs (blanches ou tirant sur le mauve).
 </t>
@@ -605,7 +623,9 @@
           <t>Synonymes et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mammillaria saboae var. theresae (Cutak) G.D.Rowley (1979)
 Cochemiea theresae (Cutak) Doweld (2000).</t>
